--- a/заказы/статистика филиалы/2023/11,23/16,11,23 ЗПФ/дв 16,11,23 бррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/16,11,23 ЗПФ/дв 16,11,23 бррсч зпф.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\16,11,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\16,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D598F4-3A24-4919-853D-3732163C7B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB9FD67-A989-48D1-B7EF-717F02A6AA6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,10 +253,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -3047,7 +3051,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomLeft" activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -3410,7 +3414,7 @@
         <v>12</v>
       </c>
       <c r="Y7" s="20">
-        <f t="shared" ref="Y7:Y43" si="6">N7/X7</f>
+        <f t="shared" ref="Y7:Y38" si="6">N7/X7</f>
         <v>0</v>
       </c>
       <c r="Z7" s="3">
